--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Desktop\MicroGridsPy-MES-Py\MES-Py\b_Conventional-MicroGrid\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33161BD6-7700-4A4C-A62C-F1D18B348B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10668" yWindow="972" windowWidth="12372" windowHeight="11388" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -132,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,9 +193,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -491,21 +482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -548,10 +537,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>320.36786501163272</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -571,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>4.7036104836853137E-13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1620.875074583789</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -594,10 +583,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>107.9303440520959</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18.7049811163489</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -605,19 +594,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>29.433174571123271</v>
+        <v>244.92256538433341</v>
       </c>
       <c r="D5">
-        <v>45.834786821906718</v>
+        <v>1069.1500710638729</v>
       </c>
       <c r="E5">
-        <v>7.4479887592407534</v>
+        <v>54.702289956768908</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>47.437040446414393</v>
       </c>
       <c r="G5">
-        <v>82.71595015227075</v>
+        <v>1416.211966851389</v>
       </c>
     </row>
   </sheetData>
@@ -626,23 +615,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -671,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -697,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>6.2360534528514103E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9.9990629295963611</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -726,10 +713,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.64073573002326534</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -753,10 +740,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>4.7036057800748301E-10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.89148129102108431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -780,10 +767,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>2.158606881041919E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.7409962232697802E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -795,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.9433174571123271E-3</v>
+        <v>2.449225653843334E-2</v>
       </c>
       <c r="F6">
-        <v>4.5834786821906722E-3</v>
+        <v>0.10691500710638729</v>
       </c>
       <c r="G6">
-        <v>7.4479887592407532E-4</v>
+        <v>5.4702289956768896E-3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.7437040446414386E-3</v>
       </c>
       <c r="I6">
-        <v>8.2715950152270745E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.14162119668513889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -836,10 +823,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.17887554038729239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -863,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>6.5655775560473827E-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.2488767056439436</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -890,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>3.0131140986634289E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.221908890580395E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -905,22 +892,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>6.162690903625766E-4</v>
+        <v>5.1281660499766964E-3</v>
       </c>
       <c r="F10">
-        <v>9.5968453261618654E-4</v>
+        <v>2.2385765428172489E-2</v>
       </c>
       <c r="G10">
-        <v>1.5594530065374539E-4</v>
+        <v>1.145351494143003E-3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.9323237100240776E-4</v>
       </c>
       <c r="I10">
-        <v>1.731898923632509E-3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.9652515343294591E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -946,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>4.9776496952403759E-4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.13942633300188331</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -961,22 +948,22 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>1.9038336698312849E-5</v>
+        <v>1.9372445669553571</v>
       </c>
       <c r="F12">
-        <v>1.174876471322043E-4</v>
+        <v>5.6786690529107533</v>
       </c>
       <c r="G12">
-        <v>5.5328033083554349E-6</v>
+        <v>8.2820185677389704E-2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.0696906833108569E-2</v>
       </c>
       <c r="I12">
-        <v>1.4205878713887261E-4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.7194307123766066</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1005,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1045,19 +1032,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1068,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1076,16 +1063,16 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>21.053711041573351</v>
+        <v>57629.018929721227</v>
       </c>
       <c r="D2">
-        <v>3.077327663781213</v>
+        <v>167221.03685563369</v>
       </c>
       <c r="E2">
-        <v>24.131038705354559</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>224850.0557853549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1099,10 +1086,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.76992767800982731</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1116,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.23007232199017269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1127,16 +1114,16 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.29999895821349698</v>
+        <v>0.82899635564931295</v>
       </c>
       <c r="D5">
-        <v>0.87876988052186411</v>
+        <v>0.87878787878788378</v>
       </c>
       <c r="E5">
-        <v>0.37380712668726002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.86602632256113532</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1150,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>29.716350067391751</v>
+        <v>0.22072139865816021</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\b_Conventional-MicroGrid\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562245C-FBDC-4A49-AA9C-CD6AB8DFADF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="1920" yWindow="1920" windowWidth="21600" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -126,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +199,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -482,19 +491,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -537,10 +550,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>320.36786501163272</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -560,10 +573,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1620.875074583789</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -583,10 +596,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>18.7049811163489</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>169.892</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -594,19 +607,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>244.92256538433341</v>
+        <v>262.35288368421038</v>
       </c>
       <c r="D5">
-        <v>1069.1500710638729</v>
+        <v>1157.10682</v>
       </c>
       <c r="E5">
-        <v>54.702289956768908</v>
+        <v>40.191180666666668</v>
       </c>
       <c r="F5">
-        <v>47.437040446414393</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1416.211966851389</v>
+        <v>1459.650884350877</v>
       </c>
     </row>
   </sheetData>
@@ -615,21 +628,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -658,7 +673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -684,10 +699,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>9.9990629295963611</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.28781384987534869</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -713,10 +728,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0.64073573002326534</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -740,10 +755,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>0.89148129102108431</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -767,10 +782,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.7409962232697802E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>3.3978399999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -782,22 +797,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.449225653843334E-2</v>
+        <v>2.6235288368421039E-2</v>
       </c>
       <c r="F6">
-        <v>0.10691500710638729</v>
+        <v>0.115710682</v>
       </c>
       <c r="G6">
-        <v>5.4702289956768896E-3</v>
+        <v>4.0191180666666673E-3</v>
       </c>
       <c r="H6">
-        <v>4.7437040446414386E-3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.14162119668513889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.14596508843508771</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -823,10 +838,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>0.17887554038729239</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -850,10 +865,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>0.2488767056439436</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -877,10 +892,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>5.221908890580395E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>4.7429106702656383E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -892,22 +907,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>5.1281660499766964E-3</v>
+        <v>5.4931204444623712E-3</v>
       </c>
       <c r="F10">
-        <v>2.2385765428172489E-2</v>
+        <v>2.4227395712637181E-2</v>
       </c>
       <c r="G10">
-        <v>1.145351494143003E-3</v>
+        <v>8.4151922825018567E-4</v>
       </c>
       <c r="H10">
-        <v>9.9323237100240776E-4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.9652515343294591E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>3.056203538534974E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -933,10 +948,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.13942633300188331</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>1.0187462134367531E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -948,22 +963,22 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>1.9372445669553571</v>
+        <v>4.9124501775832524E-3</v>
       </c>
       <c r="F12">
-        <v>5.6786690529107533</v>
+        <v>1.456426425675683E-2</v>
       </c>
       <c r="G12">
-        <v>8.2820185677389704E-2</v>
+        <v>2.1504278354720439E-4</v>
       </c>
       <c r="H12">
-        <v>2.0696906833108569E-2</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>7.7194307123766066</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>1.9691757217887289E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1032,19 +1047,20 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1063,16 +1079,16 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>57629.018929721227</v>
+        <v>430.89389000000011</v>
       </c>
       <c r="D2">
-        <v>167221.03685563369</v>
+        <v>427.40786037931042</v>
       </c>
       <c r="E2">
-        <v>224850.0557853549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>858.30175037931042</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1086,10 +1102,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.76992767800982731</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1103,10 +1119,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.23007232199017269</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1114,16 +1130,16 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.82899635564931295</v>
+        <v>2.9999999999999992E-4</v>
       </c>
       <c r="D5">
-        <v>0.87878787878788378</v>
+        <v>8.7878787878787874E-4</v>
       </c>
       <c r="E5">
-        <v>0.86602632256113532</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>5.8821855341304222E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1137,7 +1153,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>0.22072139865816021</v>
+        <v>2.4504294411313809</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\b_Conventional-MicroGrid\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4562245C-FBDC-4A49-AA9C-CD6AB8DFADF3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="21600" windowHeight="11205" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -132,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,9 +193,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -491,12 +482,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
@@ -507,7 +498,7 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -530,7 +521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -550,10 +541,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.0260394309868209E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -573,10 +564,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>3.9647480454546463E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -596,10 +587,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>169.892</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>169.8919920886002</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -607,19 +598,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>262.35288368421038</v>
+        <v>262.3529029166649</v>
       </c>
       <c r="D5">
-        <v>1157.10682</v>
+        <v>1157.106849812373</v>
       </c>
       <c r="E5">
-        <v>40.191180666666668</v>
+        <v>40.19118693698897</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>1459.650884350877</v>
+        <v>1459.6509396660269</v>
       </c>
     </row>
   </sheetData>
@@ -628,12 +619,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -644,7 +635,7 @@
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -673,7 +664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -699,10 +690,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.28781384987534869</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.28781392548887191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -728,10 +719,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.0520788619736409E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -755,10 +746,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.180611425000056E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -782,10 +773,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.3978399999999999E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.3978398417720032E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -797,22 +788,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.6235288368421039E-2</v>
+        <v>2.6235290291666491E-2</v>
       </c>
       <c r="F6">
-        <v>0.115710682</v>
+        <v>0.11571068498123729</v>
       </c>
       <c r="G6">
-        <v>4.0191180666666673E-3</v>
+        <v>4.0191186936988973E-3</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.14596508843508771</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.1459650939666027</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -838,10 +829,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.7288316875905566E-13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -865,10 +856,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>6.087658745165117E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -892,10 +883,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>4.7429106702656383E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.7429104494014253E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -907,22 +898,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>5.4931204444623712E-3</v>
+        <v>5.493120847149726E-3</v>
       </c>
       <c r="F10">
-        <v>2.4227395712637181E-2</v>
+        <v>2.422739633684589E-2</v>
       </c>
       <c r="G10">
-        <v>8.4151922825018567E-4</v>
+        <v>8.4151935953761473E-4</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>3.056203538534974E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.056203654353324E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -948,10 +939,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>1.0187462134367531E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.018750069044182E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -963,22 +954,22 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>4.9124501775832524E-3</v>
+        <v>4.9124523107544329E-3</v>
       </c>
       <c r="F12">
-        <v>1.456426425675683E-2</v>
+        <v>1.4564267703181991E-2</v>
       </c>
       <c r="G12">
-        <v>2.1504278354720439E-4</v>
+        <v>2.1504346622543781E-4</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>1.9691757217887289E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1.9691763480161859E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1007,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1047,20 +1038,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1071,7 +1061,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1079,16 +1069,16 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>430.89389000000011</v>
+        <v>430.8955207870647</v>
       </c>
       <c r="D2">
-        <v>427.40786037931042</v>
+        <v>427.40799630142948</v>
       </c>
       <c r="E2">
-        <v>858.30175037931042</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>858.30351708849423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1102,10 +1092,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.99999999999946987</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1119,10 +1109,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.3009676239532518E-13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1130,16 +1120,16 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>2.9999999999999992E-4</v>
+        <v>2.9999886460616129E-4</v>
       </c>
       <c r="D5">
-        <v>8.7878787878787874E-4</v>
+        <v>8.7878759932022302E-4</v>
       </c>
       <c r="E5">
-        <v>5.8821855341304222E-4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.882173426395807E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1153,7 +1143,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>2.4504294411313809</v>
+        <v>2.4504300849002729</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -491,11 +491,7 @@
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -541,7 +537,7 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>1.0260394309868209E-9</v>
+        <v>320.37394354013549</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -564,7 +560,7 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>3.9647480454546463E-5</v>
+        <v>1620.946024170172</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -587,7 +583,7 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>169.8919920886002</v>
+        <v>18.714822794742179</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -598,19 +594,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>262.3529029166649</v>
+        <v>244.98844740528031</v>
       </c>
       <c r="D5">
-        <v>1157.106849812373</v>
+        <v>1069.252757002477</v>
       </c>
       <c r="E5">
-        <v>40.19118693698897</v>
+        <v>54.722222994710577</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>47.442304286471263</v>
       </c>
       <c r="G5">
-        <v>1459.6509396660269</v>
+        <v>1416.4057316889391</v>
       </c>
     </row>
   </sheetData>
@@ -630,9 +626,7 @@
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -690,7 +684,7 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.28781392548887191</v>
+        <v>9.9840096059080814</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -719,7 +713,7 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>2.0520788619736409E-12</v>
+        <v>0.64074788708027108</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -746,7 +740,7 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>2.180611425000056E-8</v>
+        <v>0.89152031329359449</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -773,7 +767,7 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.3978398417720032E-2</v>
+        <v>3.7429645589484349E-3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -788,19 +782,19 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.6235290291666491E-2</v>
+        <v>2.449884474052803E-2</v>
       </c>
       <c r="F6">
-        <v>0.11571068498123729</v>
+        <v>0.10692527570024769</v>
       </c>
       <c r="G6">
-        <v>4.0191186936988973E-3</v>
+        <v>5.4722222994710579E-3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.7442304286471251E-3</v>
       </c>
       <c r="I6">
-        <v>0.1459650939666027</v>
+        <v>0.14164057316889389</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -829,7 +823,7 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>5.7288316875905566E-13</v>
+        <v>0.1788789342984472</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -856,7 +850,7 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>6.087658745165117E-9</v>
+        <v>0.24888759957377349</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -883,7 +877,7 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>4.7429104494014253E-2</v>
+        <v>5.2246564126217391E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -898,19 +892,19 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>5.493120847149726E-3</v>
+        <v>5.1295454816456159E-3</v>
       </c>
       <c r="F10">
-        <v>2.422739633684589E-2</v>
+        <v>2.2387915456869651E-2</v>
       </c>
       <c r="G10">
-        <v>8.4151935953761473E-4</v>
+        <v>1.1457688502501671E-3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.9334258479928596E-4</v>
       </c>
       <c r="I10">
-        <v>3.056203654353324E-2</v>
+        <v>2.965657237356472E-2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -939,7 +933,7 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>1.018750069044182E-2</v>
+        <v>0.13939342809793881</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -954,19 +948,19 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>4.9124523107544329E-3</v>
+        <v>1.9334535389604219</v>
       </c>
       <c r="F12">
-        <v>1.4564267703181991E-2</v>
+        <v>5.6675463408115663</v>
       </c>
       <c r="G12">
-        <v>2.1504346622543781E-4</v>
+        <v>8.2659900189235955E-2</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2.0656897088802501E-2</v>
       </c>
       <c r="I12">
-        <v>1.9691763480161859E-2</v>
+        <v>7.7043166770500262</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1069,13 +1063,13 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>430.8955207870647</v>
+        <v>57627.988301168989</v>
       </c>
       <c r="D2">
-        <v>427.40799630142948</v>
+        <v>167221.5166065252</v>
       </c>
       <c r="E2">
-        <v>858.30351708849423</v>
+        <v>224849.50490769421</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1092,7 +1086,7 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.99999999999946987</v>
+        <v>0.76992550822477179</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1109,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>5.3009676239532518E-13</v>
+        <v>0.23007449177522829</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1120,13 +1114,13 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>2.9999886460616129E-4</v>
+        <v>0.82901061634023565</v>
       </c>
       <c r="D5">
-        <v>8.7878759932022302E-4</v>
+        <v>0.8787852344790047</v>
       </c>
       <c r="E5">
-        <v>5.882173426395807E-4</v>
+        <v>0.86602820789371748</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1143,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>2.4504300849002729</v>
+        <v>2.203891686185875E-4</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Desktop\MESpy\b_Conventional-MicroGrid\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414677C-5CBA-4125-A7F5-B778A0DF43AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -126,8 +132,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -193,6 +199,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -482,19 +491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +526,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -537,10 +546,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>320.37394354013549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>320.36153528624908</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -560,10 +569,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1620.946024170172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>1620.942147526275</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -583,10 +592,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>18.714822794742179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>18.71665023794494</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -594,19 +603,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>244.98844740528031</v>
+        <v>244.9604543968228</v>
       </c>
       <c r="D5">
-        <v>1069.252757002477</v>
+        <v>1069.2091976207371</v>
       </c>
       <c r="E5">
-        <v>54.722222994710577</v>
+        <v>54.713793954700613</v>
       </c>
       <c r="F5">
-        <v>47.442304286471263</v>
+        <v>47.440065969100623</v>
       </c>
       <c r="G5">
-        <v>1416.4057316889391</v>
+        <v>1416.3235119413609</v>
       </c>
     </row>
   </sheetData>
@@ -615,12 +624,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -629,7 +638,7 @@
     <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -658,7 +667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -684,10 +693,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>9.9840096059080814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>9.9839804405478798</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -713,10 +722,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0.64074788708027108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.64072307057249822</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -740,10 +749,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>0.89152031329359449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.89151818113945103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -767,10 +776,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.7429645589484349E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>3.7433300475889879E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -782,22 +791,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.449884474052803E-2</v>
+        <v>2.4496045439682281E-2</v>
       </c>
       <c r="F6">
-        <v>0.10692527570024769</v>
+        <v>0.1069209197620737</v>
       </c>
       <c r="G6">
-        <v>5.4722222994710579E-3</v>
+        <v>5.4713793954700614E-3</v>
       </c>
       <c r="H6">
-        <v>4.7442304286471251E-3</v>
+        <v>4.7440065969100616E-3</v>
       </c>
       <c r="I6">
-        <v>0.14164057316889389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.14163235119413611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -823,10 +832,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>0.1788789342984472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.17887200622181529</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -850,10 +859,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>0.24888759957377349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.24888700433582009</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -877,10 +886,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>5.2246564126217391E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>5.2251665837813981E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -892,22 +901,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>5.1295454816456159E-3</v>
+        <v>5.1289593666203103E-3</v>
       </c>
       <c r="F10">
-        <v>2.2387915456869651E-2</v>
+        <v>2.238700341455846E-2</v>
       </c>
       <c r="G10">
-        <v>1.1457688502501671E-3</v>
+        <v>1.145592363789047E-3</v>
       </c>
       <c r="H10">
-        <v>9.9334258479928596E-4</v>
+        <v>9.9329571911693803E-4</v>
       </c>
       <c r="I10">
-        <v>2.965657237356472E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>2.9654850864084759E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -933,10 +942,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.13939342809793881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.13941765004570389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -948,22 +957,22 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>1.9334535389604219</v>
+        <v>1.9334501971933711</v>
       </c>
       <c r="F12">
-        <v>5.6675463408115663</v>
+        <v>5.6675410996882301</v>
       </c>
       <c r="G12">
-        <v>8.2659900189235955E-2</v>
+        <v>8.2658895661938125E-2</v>
       </c>
       <c r="H12">
-        <v>2.0656897088802501E-2</v>
+        <v>2.0656636999461839E-2</v>
       </c>
       <c r="I12">
-        <v>7.7043166770500262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>7.7043068295430004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1032,19 +1041,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1055,7 +1064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1063,16 +1072,16 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>960.46647168614982</v>
+        <v>960.45015318847493</v>
       </c>
       <c r="D2">
-        <v>2787.02527677542</v>
+        <v>2787.0217144541698</v>
       </c>
       <c r="E2">
-        <v>3747.4917484615698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>3747.4718676426451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1086,10 +1095,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.76992550822477179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.76993319860526321</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1103,10 +1112,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.23007449177522829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.23006680139473679</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1114,16 +1123,16 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.82901061634023565</v>
+        <v>0.8290247016186546</v>
       </c>
       <c r="D5">
-        <v>0.87878523447900447</v>
+        <v>0.87878635772655533</v>
       </c>
       <c r="E5">
-        <v>0.86602820789371726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.86603280228444068</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1137,7 +1146,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>0.22038916861858751</v>
+        <v>0.22038852481617341</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Desktop\MESpy\b_Conventional-MicroGrid\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D414677C-5CBA-4125-A7F5-B778A0DF43AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="11325" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -132,8 +126,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -199,9 +193,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -491,19 +482,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,7 +517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -546,10 +537,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>320.36153528624908</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320.37394354013549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -569,10 +560,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1620.942147526275</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1620.946024170172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -592,10 +583,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>18.71665023794494</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>18.714822794742179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -603,19 +594,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>244.9604543968228</v>
+        <v>244.98844740528031</v>
       </c>
       <c r="D5">
-        <v>1069.2091976207371</v>
+        <v>1069.252757002477</v>
       </c>
       <c r="E5">
-        <v>54.713793954700613</v>
+        <v>54.722222994710577</v>
       </c>
       <c r="F5">
-        <v>47.440065969100623</v>
+        <v>47.442304286471263</v>
       </c>
       <c r="G5">
-        <v>1416.3235119413609</v>
+        <v>1416.4057316889391</v>
       </c>
     </row>
   </sheetData>
@@ -624,12 +615,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
@@ -638,7 +629,7 @@
     <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -667,7 +658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -693,10 +684,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>9.9839804405478798</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>9.9840096059080814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -722,10 +713,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0.64072307057249822</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.64074788708027108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -749,10 +740,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>0.89151818113945103</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.89152031329359449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -776,10 +767,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.7433300475889879E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>3.7429645589484349E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -791,22 +782,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.4496045439682281E-2</v>
+        <v>2.449884474052803E-2</v>
       </c>
       <c r="F6">
-        <v>0.1069209197620737</v>
+        <v>0.10692527570024769</v>
       </c>
       <c r="G6">
-        <v>5.4713793954700614E-3</v>
+        <v>5.4722222994710579E-3</v>
       </c>
       <c r="H6">
-        <v>4.7440065969100616E-3</v>
+        <v>4.7442304286471251E-3</v>
       </c>
       <c r="I6">
-        <v>0.14163235119413611</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.14164057316889389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -832,10 +823,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>0.17887200622181529</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.1788789342984472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -859,10 +850,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>0.24888700433582009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.24888759957377349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -886,10 +877,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>5.2251665837813981E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>5.2246564126217391E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -901,22 +892,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>5.1289593666203103E-3</v>
+        <v>5.1295454816456159E-3</v>
       </c>
       <c r="F10">
-        <v>2.238700341455846E-2</v>
+        <v>2.2387915456869651E-2</v>
       </c>
       <c r="G10">
-        <v>1.145592363789047E-3</v>
+        <v>1.1457688502501671E-3</v>
       </c>
       <c r="H10">
-        <v>9.9329571911693803E-4</v>
+        <v>9.9334258479928596E-4</v>
       </c>
       <c r="I10">
-        <v>2.9654850864084759E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2.965657237356472E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -942,10 +933,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.13941765004570389</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0.13939342809793881</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2"/>
       <c r="B12" s="1" t="s">
         <v>22</v>
@@ -957,22 +948,22 @@
         <v>17</v>
       </c>
       <c r="E12">
-        <v>1.9334501971933711</v>
+        <v>1.9334535389604219</v>
       </c>
       <c r="F12">
-        <v>5.6675410996882301</v>
+        <v>5.6675463408115663</v>
       </c>
       <c r="G12">
-        <v>8.2658895661938125E-2</v>
+        <v>8.2659900189235955E-2</v>
       </c>
       <c r="H12">
-        <v>2.0656636999461839E-2</v>
+        <v>2.0656897088802501E-2</v>
       </c>
       <c r="I12">
-        <v>7.7043068295430004</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7.7043166770500262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
         <v>23</v>
       </c>
@@ -1001,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1041,19 +1032,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>25</v>
       </c>
@@ -1064,7 +1055,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>27</v>
       </c>
@@ -1072,16 +1063,16 @@
         <v>28</v>
       </c>
       <c r="C2">
-        <v>960.45015318847493</v>
+        <v>960.46647168614982</v>
       </c>
       <c r="D2">
-        <v>2787.0217144541698</v>
+        <v>2787.02527677542</v>
       </c>
       <c r="E2">
-        <v>3747.4718676426451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>3747.4917484615698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1095,10 +1086,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.76993319860526321</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.76992550822477179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
@@ -1112,10 +1103,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.23006680139473679</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.23007449177522829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1123,16 +1114,16 @@
         <v>30</v>
       </c>
       <c r="C5">
-        <v>0.8290247016186546</v>
+        <v>0.82901061634023565</v>
       </c>
       <c r="D5">
-        <v>0.87878635772655533</v>
+        <v>0.87878523447900447</v>
       </c>
       <c r="E5">
-        <v>0.86603280228444068</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0.86602820789371726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>33</v>
       </c>
@@ -1146,7 +1137,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>0.22038852481617341</v>
+        <v>0.22038916861858751</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\b_Conventional-MicroGrid\Results\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A5075-0C18-4C4E-B003-5A814CC67B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="36">
   <si>
     <t>Component</t>
   </si>
@@ -76,6 +82,9 @@
   </si>
   <si>
     <t>Fixed Cost</t>
+  </si>
+  <si>
+    <t>Replacement Cost</t>
   </si>
   <si>
     <t>Fuel cost</t>
@@ -126,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -139,6 +148,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -193,6 +203,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -482,19 +495,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -517,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -537,10 +554,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>320.37394354013549</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>1.026039438972418E-9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -560,10 +577,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>1620.946024170172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+        <v>3.9647480732359968E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -583,10 +600,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>18.714822794742179</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+        <v>169.89199208860009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -594,19 +611,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>244.98844740528031</v>
+        <v>262.35290291666888</v>
       </c>
       <c r="D5">
-        <v>1069.252757002477</v>
+        <v>1157.1068498123971</v>
       </c>
       <c r="E5">
-        <v>54.722222994710577</v>
+        <v>40.191186936989567</v>
       </c>
       <c r="F5">
-        <v>47.442304286471263</v>
+        <v>0</v>
       </c>
       <c r="G5">
-        <v>1416.4057316889391</v>
+        <v>1459.6509396660549</v>
       </c>
     </row>
   </sheetData>
@@ -615,21 +632,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -658,7 +677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -684,10 +703,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>9.9840096059080814</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.28781392548887652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -713,10 +732,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>0.64074788708027108</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>2.0520788779448361E-12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -740,10 +759,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>0.89152031329359449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>2.1806114402797978E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -767,10 +786,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.7429645589484349E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>3.3978398417720032E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -782,22 +801,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.449884474052803E-2</v>
+        <v>2.623529029166689E-2</v>
       </c>
       <c r="F6">
-        <v>0.10692527570024769</v>
+        <v>0.11571068498123969</v>
       </c>
       <c r="G6">
-        <v>5.4722222994710579E-3</v>
+        <v>4.0191186936989563E-3</v>
       </c>
       <c r="H6">
-        <v>4.7442304286471251E-3</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.14164057316889389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.14596509396660551</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -823,10 +842,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>0.1788789342984472</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>5.7288317321776757E-13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -850,10 +869,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>0.24888759957377349</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>6.0876587878218964E-9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -877,10 +896,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>5.2246564126217391E-3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>4.7429104494014253E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -892,107 +911,107 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>5.1295454816456159E-3</v>
+        <v>5.4931208471498101E-3</v>
       </c>
       <c r="F10">
-        <v>2.2387915456869651E-2</v>
+        <v>2.4227396336846389E-2</v>
       </c>
       <c r="G10">
-        <v>1.1457688502501671E-3</v>
+        <v>8.4151935953762709E-4</v>
       </c>
       <c r="H10">
-        <v>9.9334258479928596E-4</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>2.965657237356472E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2" t="s">
+        <v>3.056203654353383E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" t="s">
+        <v>9</v>
+      </c>
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11">
+        <v>1.05439456453275E-8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" t="s">
-        <v>9</v>
-      </c>
-      <c r="G11" t="s">
-        <v>9</v>
-      </c>
-      <c r="H11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11">
-        <v>0.13939342809793881</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E12">
-        <v>1.9334535389604219</v>
-      </c>
-      <c r="F12">
-        <v>5.6675463408115663</v>
-      </c>
-      <c r="G12">
-        <v>8.2659900189235955E-2</v>
-      </c>
-      <c r="H12">
-        <v>2.0656897088802501E-2</v>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H12" t="s">
+        <v>9</v>
       </c>
       <c r="I12">
-        <v>7.7043166770500262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="s">
+        <v>1.0187500690442729E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="C13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" t="s">
-        <v>9</v>
-      </c>
-      <c r="G13" t="s">
-        <v>9</v>
-      </c>
-      <c r="H13" t="s">
-        <v>9</v>
+      <c r="E13">
+        <v>4.9124523107544546E-3</v>
+      </c>
+      <c r="F13">
+        <v>1.4564267703182129E-2</v>
+      </c>
+      <c r="G13">
+        <v>2.1504346622544339E-4</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>1.9691763480162029E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1000,24 +1019,53 @@
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>9</v>
+      </c>
+      <c r="I14">
         <v>0</v>
       </c>
-      <c r="F14">
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15">
         <v>0</v>
       </c>
-      <c r="G14">
+      <c r="F15">
         <v>0</v>
       </c>
-      <c r="H14">
+      <c r="G15">
         <v>0</v>
       </c>
-      <c r="I14">
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
         <v>0</v>
       </c>
     </row>
@@ -1025,59 +1073,59 @@
   <mergeCells count="3">
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A10"/>
-    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A12:A13"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C1" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C2">
-        <v>960.46647168614982</v>
+        <v>7.1815920131183857</v>
       </c>
       <c r="D2">
-        <v>2787.02527677542</v>
+        <v>7.1234666050238884</v>
       </c>
       <c r="E2">
-        <v>3747.4917484615698</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>14.305058618142271</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -1086,16 +1134,16 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.76992550822477179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.99999999999946998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
@@ -1103,32 +1151,32 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>0.23007449177522829</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>5.3009676652100733E-13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5">
-        <v>0.82901061634023565</v>
+        <v>0.29999886460613462</v>
       </c>
       <c r="D5">
-        <v>0.87878523447900447</v>
+        <v>0.87878759932021533</v>
       </c>
       <c r="E5">
-        <v>0.86602820789371726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.58821734263955183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
@@ -1137,7 +1185,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>0.22038916861858751</v>
+        <v>2.4504300849003129</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\loren\OneDrive\Documenti\GitHub\MicroGridsPy-MultiEnergy_Paper\Scenarios\b_Conventional-MicroGrid\Results\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{260A5075-0C18-4C4E-B003-5A814CC67B16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="510" yWindow="585" windowWidth="17895" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Size" sheetId="1" r:id="rId1"/>
@@ -135,8 +129,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -148,7 +142,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -203,9 +196,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -495,23 +485,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -534,7 +520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>7</v>
       </c>
@@ -554,10 +540,10 @@
         <v>9</v>
       </c>
       <c r="G2">
-        <v>1.026039438972418E-9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>320.37394354013549</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -577,10 +563,10 @@
         <v>9</v>
       </c>
       <c r="G3">
-        <v>3.9647480732359968E-5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>1620.946024170172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>11</v>
       </c>
@@ -600,10 +586,10 @@
         <v>9</v>
       </c>
       <c r="G4">
-        <v>169.89199208860009</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18.714822794742179</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>12</v>
       </c>
@@ -611,19 +597,19 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>262.35290291666888</v>
+        <v>244.98844740528031</v>
       </c>
       <c r="D5">
-        <v>1157.1068498123971</v>
+        <v>1069.252757002477</v>
       </c>
       <c r="E5">
-        <v>40.191186936989567</v>
+        <v>54.722222994710577</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>47.442304286471263</v>
       </c>
       <c r="G5">
-        <v>1459.6509396660549</v>
+        <v>1416.4057316889391</v>
       </c>
     </row>
   </sheetData>
@@ -632,23 +618,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="12" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
@@ -677,7 +661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -703,10 +687,10 @@
         <v>9</v>
       </c>
       <c r="I2">
-        <v>0.28781392548887652</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>9.9840096059080814</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>18</v>
       </c>
@@ -732,10 +716,10 @@
         <v>9</v>
       </c>
       <c r="I3">
-        <v>2.0520788779448361E-12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.64074788708027108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="2"/>
       <c r="B4" s="1" t="s">
         <v>10</v>
@@ -759,10 +743,10 @@
         <v>9</v>
       </c>
       <c r="I4">
-        <v>2.1806114402797978E-8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.89152031329359449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2"/>
       <c r="B5" s="1" t="s">
         <v>11</v>
@@ -786,10 +770,10 @@
         <v>9</v>
       </c>
       <c r="I5">
-        <v>3.3978398417720032E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+        <v>3.7429645589484349E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2"/>
       <c r="B6" s="1" t="s">
         <v>12</v>
@@ -801,22 +785,22 @@
         <v>17</v>
       </c>
       <c r="E6">
-        <v>2.623529029166689E-2</v>
+        <v>2.449884474052803E-2</v>
       </c>
       <c r="F6">
-        <v>0.11571068498123969</v>
+        <v>0.10692527570024769</v>
       </c>
       <c r="G6">
-        <v>4.0191186936989563E-3</v>
+        <v>5.4722222994710579E-3</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>4.7442304286471251E-3</v>
       </c>
       <c r="I6">
-        <v>0.14596509396660551</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.14164057316889389</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
@@ -842,10 +826,10 @@
         <v>9</v>
       </c>
       <c r="I7">
-        <v>5.7288317321776757E-13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.1788789342984472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2"/>
       <c r="B8" s="1" t="s">
         <v>10</v>
@@ -869,10 +853,10 @@
         <v>9</v>
       </c>
       <c r="I8">
-        <v>6.0876587878218964E-9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.24888759957377349</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2"/>
       <c r="B9" s="1" t="s">
         <v>11</v>
@@ -896,10 +880,10 @@
         <v>9</v>
       </c>
       <c r="I9">
-        <v>4.7429104494014253E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.2246564126217391E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2"/>
       <c r="B10" s="1" t="s">
         <v>12</v>
@@ -911,22 +895,22 @@
         <v>17</v>
       </c>
       <c r="E10">
-        <v>5.4931208471498101E-3</v>
+        <v>5.1295454816456159E-3</v>
       </c>
       <c r="F10">
-        <v>2.4227396336846389E-2</v>
+        <v>2.2387915456869651E-2</v>
       </c>
       <c r="G10">
-        <v>8.4151935953762709E-4</v>
+        <v>1.1457688502501671E-3</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>9.9334258479928596E-4</v>
       </c>
       <c r="I10">
-        <v>3.056203654353383E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+        <v>2.965657237356472E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -952,10 +936,10 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>1.05439456453275E-8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.61993146406142541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -981,10 +965,10 @@
         <v>9</v>
       </c>
       <c r="I12">
-        <v>1.0187500690442729E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.13939342809793881</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2"/>
       <c r="B13" s="1" t="s">
         <v>23</v>
@@ -996,22 +980,22 @@
         <v>17</v>
       </c>
       <c r="E13">
-        <v>4.9124523107544546E-3</v>
+        <v>1.9334535389604219</v>
       </c>
       <c r="F13">
-        <v>1.4564267703182129E-2</v>
+        <v>5.6675463408115663</v>
       </c>
       <c r="G13">
-        <v>2.1504346622544339E-4</v>
+        <v>8.2659900189235955E-2</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2.0656897088802501E-2</v>
       </c>
       <c r="I13">
-        <v>1.9691763480162029E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+        <v>7.7043166770500262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
         <v>24</v>
       </c>
@@ -1040,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
@@ -1080,19 +1064,19 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="30.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="C1" s="1" t="s">
         <v>26</v>
       </c>
@@ -1103,7 +1087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1111,16 +1095,16 @@
         <v>29</v>
       </c>
       <c r="C2">
-        <v>7.1815920131183857</v>
+        <v>960.46647168614982</v>
       </c>
       <c r="D2">
-        <v>7.1234666050238884</v>
+        <v>2787.02527677542</v>
       </c>
       <c r="E2">
-        <v>14.305058618142271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+        <v>3747.4917484615698</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1134,10 +1118,10 @@
         <v>9</v>
       </c>
       <c r="E3">
-        <v>0.99999999999946998</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.76992550822477179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1151,10 +1135,10 @@
         <v>9</v>
       </c>
       <c r="E4">
-        <v>5.3009676652100733E-13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.23007449177522829</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -1162,16 +1146,16 @@
         <v>31</v>
       </c>
       <c r="C5">
-        <v>0.29999886460613462</v>
+        <v>0.82901061634023565</v>
       </c>
       <c r="D5">
-        <v>0.87878759932021533</v>
+        <v>0.87878523447900447</v>
       </c>
       <c r="E5">
-        <v>0.58821734263955183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+        <v>0.86602820789371726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
@@ -1185,7 +1169,7 @@
         <v>9</v>
       </c>
       <c r="E6">
-        <v>2.4504300849003129</v>
+        <v>0.22038916861858751</v>
       </c>
     </row>
   </sheetData>

--- a/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
+++ b/Scenarios/b_Conventional-MicroGrid/Results/EnergySystemSize.xlsx
@@ -936,7 +936,7 @@
         <v>9</v>
       </c>
       <c r="I11">
-        <v>0.61993146406142541</v>
+        <v>0.74342551278564462</v>
       </c>
     </row>
     <row r="12" spans="1:9">
